--- a/tests/cascade_spreadsheet/cascade_model_full.xlsx
+++ b/tests/cascade_spreadsheet/cascade_model_full.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="16005" windowHeight="5730" tabRatio="647" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="16005" windowHeight="5730" tabRatio="647"/>
   </bookViews>
   <sheets>
     <sheet name="Databook Sheet Names" sheetId="5" r:id="rId1"/>
     <sheet name="Compartments" sheetId="1" r:id="rId2"/>
-    <sheet name="Characteristics" sheetId="4" r:id="rId3"/>
-    <sheet name="Transitions" sheetId="2" r:id="rId4"/>
+    <sheet name="Transitions" sheetId="2" r:id="rId3"/>
+    <sheet name="Characteristics" sheetId="4" r:id="rId4"/>
     <sheet name="Parameters" sheetId="3" r:id="rId5"/>
     <sheet name="Notes" sheetId="6" r:id="rId6"/>
   </sheets>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="136">
   <si>
     <t>Code Label</t>
   </si>
@@ -50,27 +50,9 @@
     <t>Plot Coordinates</t>
   </si>
   <si>
-    <t>(-10,1)</t>
-  </si>
-  <si>
-    <t>(-10,-1)</t>
-  </si>
-  <si>
     <t>Default Value</t>
   </si>
   <si>
-    <t>(-12,1)</t>
-  </si>
-  <si>
-    <t>(-12,-1)</t>
-  </si>
-  <si>
-    <t>(-10,2)</t>
-  </si>
-  <si>
-    <t>ddis</t>
-  </si>
-  <si>
     <t>Dead (Cause: TB)</t>
   </si>
   <si>
@@ -80,9 +62,6 @@
     <t>Includes</t>
   </si>
   <si>
-    <t>lt_inf</t>
-  </si>
-  <si>
     <t>ac_inf</t>
   </si>
   <si>
@@ -113,9 +92,6 @@
     <t>Databook Order</t>
   </si>
   <si>
-    <t>acr</t>
-  </si>
-  <si>
     <t>Entry Point</t>
   </si>
   <si>
@@ -137,21 +113,6 @@
     <t>Function</t>
   </si>
   <si>
-    <t>spdt</t>
-  </si>
-  <si>
-    <t>spmt</t>
-  </si>
-  <si>
-    <t>spd_infx</t>
-  </si>
-  <si>
-    <t>spm_infx</t>
-  </si>
-  <si>
-    <t>acj</t>
-  </si>
-  <si>
     <t>(0,5)</t>
   </si>
   <si>
@@ -176,90 +137,27 @@
     <t>b_rate</t>
   </si>
   <si>
-    <t>sh_notified</t>
-  </si>
-  <si>
     <t>Notes (indicating equivalence to UCL model)</t>
   </si>
   <si>
     <t>phi_early</t>
   </si>
   <si>
-    <t>Notified Cases</t>
-  </si>
-  <si>
-    <t>Active TB Testing and Treatment</t>
-  </si>
-  <si>
-    <t>Latent Testing and Treatment</t>
-  </si>
-  <si>
     <t>Plot Value</t>
   </si>
   <si>
     <t>n</t>
   </si>
   <si>
-    <t>spmdot_rate</t>
-  </si>
-  <si>
-    <t>spxdot_rate</t>
-  </si>
-  <si>
     <t>spddut_rate</t>
   </si>
   <si>
-    <t>spmdut_rate</t>
-  </si>
-  <si>
     <t>General Demographics</t>
   </si>
   <si>
-    <t>sh_atreat</t>
-  </si>
-  <si>
-    <t>sh_ltreat</t>
-  </si>
-  <si>
-    <t>sh_death</t>
-  </si>
-  <si>
-    <t>Active TB Death Rates</t>
-  </si>
-  <si>
-    <t>Active TB Progression Rates</t>
-  </si>
-  <si>
-    <t>sh_inf</t>
-  </si>
-  <si>
-    <t>Infection Susceptibility</t>
-  </si>
-  <si>
-    <t>sh_aprog</t>
-  </si>
-  <si>
     <t>num_vac</t>
   </si>
   <si>
-    <t>spd_inf</t>
-  </si>
-  <si>
-    <t>spm_inf</t>
-  </si>
-  <si>
-    <t>sh_lprev</t>
-  </si>
-  <si>
-    <t>sh_aprev</t>
-  </si>
-  <si>
-    <t>Active TB Prevalence</t>
-  </si>
-  <si>
-    <t>Latent TB Prevalence</t>
-  </si>
-  <si>
     <t>Suspected Active Prevalence</t>
   </si>
   <si>
@@ -272,27 +170,9 @@
     <t>Special Rules</t>
   </si>
   <si>
-    <t>sh_lprog</t>
-  </si>
-  <si>
-    <t>Latent Progression Rates</t>
-  </si>
-  <si>
     <t>ltu</t>
   </si>
   <si>
-    <t>acdu</t>
-  </si>
-  <si>
-    <t>acdt</t>
-  </si>
-  <si>
-    <t>acmu</t>
-  </si>
-  <si>
-    <t>acmt</t>
-  </si>
-  <si>
     <t>Recovered</t>
   </si>
   <si>
@@ -317,9 +197,6 @@
     <t>Latent</t>
   </si>
   <si>
-    <t>lat</t>
-  </si>
-  <si>
     <t>larate</t>
   </si>
   <si>
@@ -377,9 +254,6 @@
     <t>adtreatfail</t>
   </si>
   <si>
-    <t>adworse</t>
-  </si>
-  <si>
     <t>amtreat</t>
   </si>
   <si>
@@ -455,24 +329,12 @@
     <t>Active MDR Undiagnosed Infections</t>
   </si>
   <si>
-    <t>DS Death Rate (Untreated)</t>
-  </si>
-  <si>
-    <t>MDR Death Rate (Untreated)</t>
-  </si>
-  <si>
     <t>i_rate</t>
   </si>
   <si>
     <t>Infection Rate (Susceptible -&gt; Latent)</t>
   </si>
   <si>
-    <t>MDR Death Rate (On Treatment)</t>
-  </si>
-  <si>
-    <t>DS Death Rate (On Treatment)</t>
-  </si>
-  <si>
     <t>Vaccination Rate (Susceptible -&gt; Vaccinated)</t>
   </si>
   <si>
@@ -518,17 +380,65 @@
     <t>amtreat_prop</t>
   </si>
   <si>
-    <t>Proportion DS Fail Treatment</t>
-  </si>
-  <si>
-    <t>ac</t>
+    <t>Proportion DS Treatment failing and progressing to MDR Treatment</t>
+  </si>
+  <si>
+    <t>TB Death Rate</t>
+  </si>
+  <si>
+    <t>adtomtreat_prop</t>
+  </si>
+  <si>
+    <t>adtorec_prop</t>
+  </si>
+  <si>
+    <t>amtorec_prop</t>
+  </si>
+  <si>
+    <t>Proportion DS Successful Treatment</t>
+  </si>
+  <si>
+    <t>Proportion MDR Successful Treatment</t>
+  </si>
+  <si>
+    <t>sh_epi</t>
+  </si>
+  <si>
+    <t>sh_prev</t>
+  </si>
+  <si>
+    <t>Prevalence</t>
+  </si>
+  <si>
+    <t>rectoac_prop</t>
+  </si>
+  <si>
+    <t>Proportion Recovered Re-infected</t>
+  </si>
+  <si>
+    <t>(0,2)</t>
+  </si>
+  <si>
+    <t>(-9,1)</t>
+  </si>
+  <si>
+    <t>(9,1)</t>
+  </si>
+  <si>
+    <t>(-9,-1)</t>
+  </si>
+  <si>
+    <t>(9,-1)</t>
+  </si>
+  <si>
+    <t>Epidemic Characteristics</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -583,13 +493,6 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -858,7 +761,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -869,9 +772,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1092,13 +992,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>325120</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>155316</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>156633</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1416,10 +1316,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1430,90 +1330,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1526,7 +1370,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1551,16 +1395,16 @@
         <v>7</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1571,7 +1415,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1582,115 +1426,115 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1707,10 +1551,220 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="9"/>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="I8" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="L8" s="24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="K9" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="K10" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="L10" s="24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1719,7 +1773,7 @@
     <col min="2" max="2" width="48.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -1751,48 +1805,48 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>3</v>
@@ -1803,177 +1857,186 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>126</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="J3" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>126</v>
+      </c>
+      <c r="D4" s="2">
+        <v>6</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>75</v>
+        <v>126</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="J5" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>75</v>
+        <v>126</v>
+      </c>
+      <c r="D6" s="2">
+        <v>4</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="J6" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="D7" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="J7" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="D8" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="J8" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="D9" s="2">
         <v>-1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J9" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="K9" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="L9" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="M9" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="N9" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>2</v>
@@ -1982,171 +2045,179 @@
         <v>2</v>
       </c>
       <c r="K10" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="L10" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="M10" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="N10" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="D11" s="2">
         <v>-1</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="I11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" t="s">
-        <v>39</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="B12" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="D12" s="2">
         <v>-1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="I12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" t="s">
-        <v>40</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="D13" s="2">
         <v>-1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="I13" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J13" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="B14" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="D14" s="2">
         <v>-1</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="I14" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" t="s">
-        <v>72</v>
+        <v>13</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="B15" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D15" s="2">
         <v>-1</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="I15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" t="s">
-        <v>73</v>
+        <v>13</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="D16" s="2">
         <v>-1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="I16" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J16" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="D17" s="2">
         <v>-1</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="J17" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2154,231 +2225,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="8.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="11"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="G3" s="9"/>
-      <c r="L3" s="9"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="L4" s="9"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="L5" s="9"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="L6" s="9"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="K7" s="10"/>
-      <c r="L7" s="11"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="G8" s="9"/>
-      <c r="I8" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="J8" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="E9" t="s">
-        <v>115</v>
-      </c>
-      <c r="G9" s="9"/>
-      <c r="J9" t="s">
-        <v>116</v>
-      </c>
-      <c r="L9" s="9"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="G10" s="9"/>
-      <c r="K10" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="E11" t="s">
-        <v>119</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="L11" s="9"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="11"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView showWhiteSpace="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.140625" style="2" bestFit="1" customWidth="1"/>
@@ -2394,31 +2253,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2426,275 +2285,303 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.1</v>
+        <v>103</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>146</v>
+        <v>102</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>150</v>
+        <v>104</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2">
+        <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>152</v>
+        <v>106</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>151</v>
-      </c>
-      <c r="D6" s="2">
-        <f>0.2001*0.157</f>
-        <v>3.1415699999999998E-2</v>
+        <v>105</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="F6" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>155</v>
-      </c>
-      <c r="D7" s="2">
-        <v>3.0000000000000001E-3</v>
+        <v>109</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="F7" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>158</v>
+        <v>112</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>159</v>
+        <v>113</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" s="2">
+        <v>8</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
         <v>114</v>
       </c>
-      <c r="C10" t="s">
-        <v>160</v>
+      <c r="E10" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" s="2">
+        <v>6</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>163</v>
+        <v>117</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>161</v>
+        <v>115</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" s="2">
+        <v>9</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>164</v>
+        <v>118</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" s="2">
+        <v>11</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
+      <c r="A13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" s="2">
+        <v>7</v>
+      </c>
       <c r="G13" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.12</v>
+        <v>122</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" t="s">
+        <v>124</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="F14" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.12</v>
+        <v>128</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" t="s">
+        <v>129</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="F15" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" t="s">
-        <v>148</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.17</v>
+        <v>41</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="5">
+        <v>26</v>
+      </c>
+      <c r="F16" s="2">
         <v>5</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>59</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
-      <c r="C17" t="s">
-        <v>147</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="2">
-        <v>6</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2718,7 +2605,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/tests/cascade_spreadsheet/cascade_model_full.xlsx
+++ b/tests/cascade_spreadsheet/cascade_model_full.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="16005" windowHeight="5730" tabRatio="647"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="16005" windowHeight="5730" tabRatio="647" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Databook Sheet Names" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="139">
   <si>
     <t>Code Label</t>
   </si>
@@ -432,6 +432,15 @@
   </si>
   <si>
     <t>Epidemic Characteristics</t>
+  </si>
+  <si>
+    <t>avg_contacts_in</t>
+  </si>
+  <si>
+    <t>i_rate/100</t>
+  </si>
+  <si>
+    <t>i_rate/50</t>
   </si>
 </sst>
 </file>
@@ -1318,7 +1327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -1652,7 +1661,7 @@
       <c r="A5" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="24" t="s">
         <v>63</v>
       </c>
       <c r="L5" s="8"/>
@@ -1764,7 +1773,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2229,8 +2238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2314,10 +2323,16 @@
         <v>125</v>
       </c>
       <c r="F3" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>40</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2354,10 +2369,13 @@
         <v>125</v>
       </c>
       <c r="F5" s="2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>40</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2554,10 +2572,13 @@
         <v>125</v>
       </c>
       <c r="F15" s="2">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>40</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">

--- a/tests/cascade_spreadsheet/cascade_model_full.xlsx
+++ b/tests/cascade_spreadsheet/cascade_model_full.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="16005" windowHeight="5730" tabRatio="647" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="16005" windowHeight="5730" tabRatio="647" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Databook Sheet Names" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="139">
   <si>
     <t>Code Label</t>
   </si>
@@ -1772,8 +1772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1854,9 +1854,6 @@
       <c r="D2" s="2">
         <v>2</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1877,9 +1874,6 @@
       <c r="D3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="H3" s="2" t="s">
         <v>48</v>
       </c>
@@ -1923,9 +1917,6 @@
       <c r="D5" s="2">
         <v>2</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="H5" s="2" t="s">
         <v>68</v>
       </c>
@@ -1946,9 +1937,6 @@
       <c r="D6" s="2">
         <v>4</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="H6" s="2" t="s">
         <v>70</v>
       </c>
@@ -1969,9 +1957,6 @@
       <c r="D7" s="2">
         <v>3</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>69</v>
       </c>
@@ -1991,9 +1976,6 @@
       </c>
       <c r="D8" s="2">
         <v>5</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>71</v>
@@ -2238,8 +2220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView showWhiteSpace="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tests/cascade_spreadsheet/cascade_model_full.xlsx
+++ b/tests/cascade_spreadsheet/cascade_model_full.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="145">
   <si>
     <t>Code Label</t>
   </si>
@@ -441,6 +441,24 @@
   </si>
   <si>
     <t>i_rate/50</t>
+  </si>
+  <si>
+    <t>birth</t>
+  </si>
+  <si>
+    <t>Number of births</t>
+  </si>
+  <si>
+    <t>ad_inf</t>
+  </si>
+  <si>
+    <t>Total number of DS Infections</t>
+  </si>
+  <si>
+    <t>am_inf</t>
+  </si>
+  <si>
+    <t>Total number of MDR Infections</t>
   </si>
 </sst>
 </file>
@@ -1563,7 +1581,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1770,10 +1788,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1986,137 +2004,117 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="D9" s="2">
         <v>-1</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="J9" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="K9" t="s">
-        <v>92</v>
-      </c>
-      <c r="L9" t="s">
-        <v>93</v>
-      </c>
-      <c r="M9" t="s">
         <v>80</v>
-      </c>
-      <c r="N9" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="J10" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="K10" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" t="s">
-        <v>79</v>
-      </c>
-      <c r="M10" t="s">
-        <v>78</v>
-      </c>
-      <c r="N10" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="D11" s="2">
         <v>-1</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" t="s">
         <v>92</v>
       </c>
-      <c r="K11" s="2"/>
+      <c r="L11" t="s">
+        <v>93</v>
+      </c>
+      <c r="M11" t="s">
+        <v>80</v>
+      </c>
+      <c r="N11" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>94</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D12" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" t="s">
+        <v>79</v>
+      </c>
+      <c r="M12" t="s">
+        <v>78</v>
+      </c>
+      <c r="N12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>139</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="D13" s="2">
         <v>-1</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I13" t="s">
-        <v>13</v>
-      </c>
       <c r="J13" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -2124,7 +2122,7 @@
         <v>87</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D14" s="2">
         <v>-1</v>
@@ -2141,16 +2139,14 @@
       <c r="J14" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>88</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D15" s="2">
         <v>-1</v>
@@ -2167,16 +2163,14 @@
       <c r="J15" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="D16" s="2">
         <v>-1</v>
@@ -2191,23 +2185,98 @@
         <v>13</v>
       </c>
       <c r="J16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="D17" s="2">
         <v>-1</v>
       </c>
+      <c r="F17" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J17" t="s">
+      <c r="I17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2221,7 +2290,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView showWhiteSpace="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B10" sqref="A10:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tests/cascade_spreadsheet/cascade_model_full.xlsx
+++ b/tests/cascade_spreadsheet/cascade_model_full.xlsx
@@ -2749,7 +2749,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2874,6 +2874,9 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>116</v>
+      </c>
+      <c r="G11">
+        <v>0.85</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
